--- a/results/tables.xlsx
+++ b/results/tables.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DC60DC-25AF-49EF-90AE-E1D4EC31F7C1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165529E9-93DA-4FB4-89E4-83D0041FD7FA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Q2.1A</t>
   </si>
@@ -95,13 +95,29 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Q2.2A</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>Left Epipole</t>
+  </si>
+  <si>
+    <t>Right Epipole</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -149,12 +165,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,26 +452,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:K17"/>
+  <dimension ref="C4:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
@@ -464,8 +486,11 @@
       <c r="G5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>1</v>
       </c>
@@ -478,8 +503,17 @@
       <c r="G6">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="J6" s="3">
+        <v>2.7599862907379801E-8</v>
+      </c>
+      <c r="K6" s="3">
+        <v>-1.73596483065256E-6</v>
+      </c>
+      <c r="L6" s="3">
+        <v>2.8890674776419398E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>0.5</v>
       </c>
@@ -492,21 +526,39 @@
       <c r="G7">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="J7" s="3">
+        <v>1.31743175317602E-6</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1.25273901586371E-7</v>
+      </c>
+      <c r="L7" s="3">
+        <v>-4.50193943161806E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>0.33</v>
       </c>
       <c r="D8">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="9" spans="3:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="J8" s="3">
+        <v>-2.92816132849901E-3</v>
+      </c>
+      <c r="K8" s="3">
+        <v>4.4664420407747901E-2</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" ht="16.2" x14ac:dyDescent="0.3">
       <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="F10" s="4">
         <v>2.8893502654958696</v>
       </c>
@@ -516,8 +568,11 @@
       <c r="H10" s="4">
         <v>817.87718965790305</v>
       </c>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.3">
       <c r="F11" s="4">
         <v>0.41282314237372097</v>
       </c>
@@ -527,8 +582,11 @@
       <c r="H11" s="4">
         <v>575.35900704263997</v>
       </c>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="J11" s="5">
+        <v>6.2600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.3">
       <c r="F12" s="4">
         <v>-3.82295930687061E-5</v>
       </c>
@@ -541,12 +599,23 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="14" spans="3:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" ht="16.2" x14ac:dyDescent="0.3">
       <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>25850</v>
+      </c>
+      <c r="K14">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
       <c r="F15" s="4">
         <v>2.8599098000000001</v>
       </c>
@@ -556,8 +625,11 @@
       <c r="H15" s="4">
         <v>821.05481999999995</v>
       </c>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
       <c r="F16" s="4">
         <v>0.39121270000000002</v>
       </c>
@@ -566,6 +638,12 @@
       </c>
       <c r="H16" s="4">
         <v>570.81561999999997</v>
+      </c>
+      <c r="J16">
+        <v>33962</v>
+      </c>
+      <c r="K16">
+        <v>2204</v>
       </c>
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.3">
